--- a/data-raw/PCAWG7_indel_classification_2017_12_08.xlsx
+++ b/data-raw/PCAWG7_indel_classification_2017_12_08.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\ICGC-upload-new\PCAWG7_mutational_catalogues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnh/Documents/ICAMS/ICAMS/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Indel classification" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="79">
   <si>
     <t>Del</t>
   </si>
@@ -3428,13 +3431,16 @@
       </rPr>
       <t>GCGGC (delete a single 2-bp sequence from repeat of 2 2-bp units)</t>
     </r>
+  </si>
+  <si>
+    <t>Insertion size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3900,17 +3906,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="3"/>
-    <col min="2" max="2" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="68.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" style="1" customWidth="1"/>
     <col min="6" max="9" width="10.6640625" style="1"/>
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="10.6640625" style="1"/>
@@ -3918,7 +3924,7 @@
     <col min="21" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>67</v>
       </c>
@@ -3927,7 +3933,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>66</v>
       </c>
@@ -3936,17 +3942,17 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" thickBot="1">
+    <row r="5" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="16" t="s">
         <v>17</v>
@@ -3955,7 +3961,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="31.5" thickBot="1">
+    <row r="6" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -3970,7 +3976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4004,7 +4010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -4038,7 +4044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -4089,7 +4095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -4140,7 +4146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -4157,7 +4163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -4175,11 +4181,11 @@
       </c>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="1:20" ht="16" thickBot="1">
+    <row r="19" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q19" s="8"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:20" ht="16" thickBot="1">
+    <row r="20" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -4189,7 +4195,7 @@
       <c r="Q20" s="9"/>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="1:20" ht="31.5" thickBot="1">
+    <row r="21" spans="1:20" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -4205,7 +4211,7 @@
       <c r="Q21" s="9"/>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4224,7 +4230,7 @@
       <c r="Q22" s="9"/>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4243,7 +4249,7 @@
       <c r="Q23" s="9"/>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4262,7 +4268,7 @@
       <c r="Q24" s="9"/>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4281,7 +4287,7 @@
       <c r="Q25" s="9"/>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4300,7 +4306,7 @@
       <c r="Q26" s="9"/>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4319,7 +4325,7 @@
       <c r="Q27" s="9"/>
       <c r="T27" s="7"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4338,7 +4344,7 @@
       <c r="Q28" s="9"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4357,7 +4363,7 @@
       <c r="Q29" s="9"/>
       <c r="T29" s="7"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -4376,7 +4382,7 @@
       <c r="Q30" s="9"/>
       <c r="T30" s="7"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>23</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>24</v>
       </c>
@@ -4427,8 +4433,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" thickBot="1"/>
-    <row r="35" spans="1:5" ht="16" thickBot="1">
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
@@ -4436,7 +4442,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5" thickBot="1">
+    <row r="36" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>25</v>
       </c>
@@ -4467,7 +4473,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>26</v>
       </c>
@@ -4484,7 +4490,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>27</v>
       </c>
@@ -4501,7 +4507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>28</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>29</v>
       </c>
@@ -4535,7 +4541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>30</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>31</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>32</v>
       </c>
@@ -4586,7 +4592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>33</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>34</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>35</v>
       </c>
@@ -4637,7 +4643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>36</v>
       </c>
@@ -4654,7 +4660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>37</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>38</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>39</v>
       </c>
@@ -4705,7 +4711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>40</v>
       </c>
@@ -4722,7 +4728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>41</v>
       </c>
@@ -4739,7 +4745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>42</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>44</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>45</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>46</v>
       </c>
@@ -4824,7 +4830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>47</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>48</v>
       </c>
@@ -4858,8 +4864,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" thickBot="1"/>
-    <row r="62" spans="1:5" ht="16" thickBot="1">
+    <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>51</v>
       </c>
@@ -4867,12 +4873,12 @@
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
     </row>
-    <row r="63" spans="1:5" ht="31.5" thickBot="1">
+    <row r="63" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>5</v>
@@ -4881,7 +4887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>49</v>
       </c>
@@ -4898,7 +4904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>50</v>
       </c>
@@ -4915,7 +4921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>51</v>
       </c>
@@ -4932,7 +4938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>52</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>53</v>
       </c>
@@ -4966,7 +4972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>54</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>55</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>56</v>
       </c>
@@ -5017,7 +5023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>57</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>58</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>59</v>
       </c>
@@ -5068,7 +5074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>60</v>
       </c>
@@ -5085,7 +5091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>61</v>
       </c>
@@ -5102,7 +5108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>62</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>63</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>64</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>65</v>
       </c>
@@ -5170,7 +5176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>66</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>67</v>
       </c>
@@ -5204,7 +5210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>68</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>69</v>
       </c>
@@ -5238,7 +5244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>70</v>
       </c>
@@ -5255,7 +5261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>71</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>72</v>
       </c>
@@ -5289,8 +5295,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" thickBot="1"/>
-    <row r="89" spans="1:5" ht="16" thickBot="1">
+    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>52</v>
       </c>
@@ -5298,7 +5304,7 @@
       <c r="D89" s="12"/>
       <c r="E89" s="13"/>
     </row>
-    <row r="90" spans="1:5" ht="31.5" thickBot="1">
+    <row r="90" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>3</v>
       </c>
@@ -5312,7 +5318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>73</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>74</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>75</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>76</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>77</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>78</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>79</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>80</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>81</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>82</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>83</v>
       </c>
